--- a/Database/Excel/Product groups/Встраиваемая техника/Духовые шкафы.xlsx
+++ b/Database/Excel/Product groups/Встраиваемая техника/Духовые шкафы.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Духовые шкафы ВСТР" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Духовые шкафы ВСТР'!$B$1:$Z$379</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Духовые шкафы ВСТР'!$A$1:$Z$377</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7964" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7922" uniqueCount="836">
   <si>
     <t>Название</t>
   </si>
@@ -3611,7 +3611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3619,7 +3619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z379"/>
+  <dimension ref="A1:Z377"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -32050,10 +32050,10 @@
     </row>
     <row r="365" spans="1:26">
       <c r="A365" s="1" t="s">
-        <v>203</v>
+        <v>780</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>202</v>
+        <v>779</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>15</v>
@@ -32078,31 +32078,31 @@
         <v>29</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="L365" s="1">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M365" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N365" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O365" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P365" s="1">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="Q365" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R365" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="S365" s="1" t="s">
-        <v>808</v>
+        <v>41</v>
       </c>
       <c r="T365" s="1" t="s">
         <v>20</v>
@@ -32128,16 +32128,16 @@
     </row>
     <row r="366" spans="1:26">
       <c r="A366" s="1" t="s">
-        <v>201</v>
+        <v>782</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>200</v>
+        <v>781</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E366" s="1"/>
       <c r="F366" s="1" t="s">
@@ -32153,34 +32153,34 @@
         <v>24</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="L366" s="1">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="M366" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N366" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O366" s="1" t="s">
-        <v>30</v>
+        <v>807</v>
       </c>
       <c r="P366" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q366" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="R366" s="1" t="s">
-        <v>812</v>
+        <v>23</v>
       </c>
       <c r="S366" s="1" t="s">
-        <v>808</v>
+        <v>41</v>
       </c>
       <c r="T366" s="1" t="s">
         <v>20</v>
@@ -32206,20 +32206,20 @@
     </row>
     <row r="367" spans="1:26">
       <c r="A367" s="1" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E367" s="1"/>
       <c r="F367" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="G367" s="1" t="s">
         <v>833</v>
@@ -32231,34 +32231,34 @@
         <v>24</v>
       </c>
       <c r="J367" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K367" s="1" t="s">
         <v>819</v>
       </c>
       <c r="L367" s="1">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="M367" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N367" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O367" s="1" t="s">
-        <v>21</v>
+        <v>807</v>
       </c>
       <c r="P367" s="1">
-        <v>3.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q367" s="1" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="R367" s="1" t="s">
-        <v>815</v>
+        <v>23</v>
       </c>
       <c r="S367" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T367" s="1" t="s">
         <v>20</v>
@@ -32273,10 +32273,10 @@
         <v>20</v>
       </c>
       <c r="X367" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y367" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z367" s="1" t="s">
         <v>23</v>
@@ -32284,10 +32284,10 @@
     </row>
     <row r="368" spans="1:26">
       <c r="A368" s="1" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>15</v>
@@ -32309,7 +32309,7 @@
         <v>24</v>
       </c>
       <c r="J368" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K368" s="1" t="s">
         <v>819</v>
@@ -32324,16 +32324,16 @@
         <v>22</v>
       </c>
       <c r="O368" s="1" t="s">
-        <v>807</v>
+        <v>21</v>
       </c>
       <c r="P368" s="1">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q368" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="R368" s="1" t="s">
-        <v>23</v>
+        <v>815</v>
       </c>
       <c r="S368" s="1" t="s">
         <v>41</v>
@@ -32362,20 +32362,20 @@
     </row>
     <row r="369" spans="1:26">
       <c r="A369" s="1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E369" s="1"/>
       <c r="F369" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>833</v>
@@ -32387,34 +32387,34 @@
         <v>24</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K369" s="1" t="s">
         <v>819</v>
       </c>
       <c r="L369" s="1">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="M369" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N369" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O369" s="1" t="s">
-        <v>807</v>
+        <v>21</v>
       </c>
       <c r="P369" s="1">
-        <v>2.2000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="Q369" s="1" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="R369" s="1" t="s">
-        <v>23</v>
+        <v>815</v>
       </c>
       <c r="S369" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T369" s="1" t="s">
         <v>20</v>
@@ -32429,10 +32429,10 @@
         <v>20</v>
       </c>
       <c r="X369" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y369" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z369" s="1" t="s">
         <v>23</v>
@@ -32440,16 +32440,16 @@
     </row>
     <row r="370" spans="1:26">
       <c r="A370" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E370" s="1"/>
       <c r="F370" s="1" t="s">
@@ -32465,13 +32465,13 @@
         <v>24</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>70</v>
+        <v>527</v>
       </c>
       <c r="K370" s="1" t="s">
         <v>819</v>
       </c>
       <c r="L370" s="1">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="M370" s="1">
         <v>300</v>
@@ -32483,16 +32483,16 @@
         <v>21</v>
       </c>
       <c r="P370" s="1">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q370" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="R370" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="S370" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="T370" s="1" t="s">
         <v>20</v>
@@ -32518,10 +32518,10 @@
     </row>
     <row r="371" spans="1:26">
       <c r="A371" s="1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>15</v>
@@ -32543,7 +32543,7 @@
         <v>24</v>
       </c>
       <c r="J371" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K371" s="1" t="s">
         <v>819</v>
@@ -32564,7 +32564,7 @@
         <v>3.7</v>
       </c>
       <c r="Q371" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="R371" s="1" t="s">
         <v>815</v>
@@ -32596,10 +32596,10 @@
     </row>
     <row r="372" spans="1:26">
       <c r="A372" s="1" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>15</v>
@@ -32621,7 +32621,7 @@
         <v>24</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>527</v>
+        <v>18</v>
       </c>
       <c r="K372" s="1" t="s">
         <v>819</v>
@@ -32630,22 +32630,22 @@
         <v>76</v>
       </c>
       <c r="M372" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N372" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O372" s="1" t="s">
-        <v>21</v>
+        <v>807</v>
       </c>
       <c r="P372" s="1">
         <v>3.5</v>
       </c>
       <c r="Q372" s="1" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="R372" s="1" t="s">
-        <v>812</v>
+        <v>23</v>
       </c>
       <c r="S372" s="1" t="s">
         <v>61</v>
@@ -32674,16 +32674,16 @@
     </row>
     <row r="373" spans="1:26">
       <c r="A373" s="1" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E373" s="1"/>
       <c r="F373" s="1" t="s">
@@ -32699,16 +32699,16 @@
         <v>24</v>
       </c>
       <c r="J373" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K373" s="1" t="s">
         <v>819</v>
       </c>
       <c r="L373" s="1">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="M373" s="1">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="N373" s="1" t="s">
         <v>22</v>
@@ -32717,16 +32717,16 @@
         <v>21</v>
       </c>
       <c r="P373" s="1">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q373" s="1" t="s">
-        <v>55</v>
+        <v>337</v>
       </c>
       <c r="R373" s="1" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="S373" s="1" t="s">
-        <v>41</v>
+        <v>808</v>
       </c>
       <c r="T373" s="1" t="s">
         <v>20</v>
@@ -32752,16 +32752,16 @@
     </row>
     <row r="374" spans="1:26">
       <c r="A374" s="1" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E374" s="1"/>
       <c r="F374" s="1" t="s">
@@ -32777,34 +32777,34 @@
         <v>24</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K374" s="1" t="s">
         <v>819</v>
       </c>
       <c r="L374" s="1">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M374" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N374" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O374" s="1" t="s">
-        <v>807</v>
+        <v>21</v>
       </c>
       <c r="P374" s="1">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q374" s="1" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="R374" s="1" t="s">
-        <v>23</v>
+        <v>812</v>
       </c>
       <c r="S374" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="T374" s="1" t="s">
         <v>20</v>
@@ -32830,10 +32830,10 @@
     </row>
     <row r="375" spans="1:26">
       <c r="A375" s="1" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>15</v>
@@ -32855,16 +32855,16 @@
         <v>24</v>
       </c>
       <c r="J375" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K375" s="1" t="s">
         <v>819</v>
       </c>
       <c r="L375" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M375" s="1">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N375" s="1" t="s">
         <v>22</v>
@@ -32873,16 +32873,16 @@
         <v>21</v>
       </c>
       <c r="P375" s="1">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q375" s="1" t="s">
-        <v>337</v>
+        <v>71</v>
       </c>
       <c r="R375" s="1" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="S375" s="1" t="s">
-        <v>808</v>
+        <v>42</v>
       </c>
       <c r="T375" s="1" t="s">
         <v>20</v>
@@ -32908,10 +32908,10 @@
     </row>
     <row r="376" spans="1:26">
       <c r="A376" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>15</v>
@@ -32933,34 +32933,34 @@
         <v>24</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>29</v>
+        <v>527</v>
       </c>
       <c r="K376" s="1" t="s">
         <v>819</v>
       </c>
       <c r="L376" s="1">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M376" s="1">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="N376" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O376" s="1" t="s">
-        <v>21</v>
+        <v>807</v>
       </c>
       <c r="P376" s="1">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q376" s="1" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="R376" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="S376" s="1" t="s">
-        <v>42</v>
+        <v>808</v>
       </c>
       <c r="T376" s="1" t="s">
         <v>20</v>
@@ -32986,16 +32986,16 @@
     </row>
     <row r="377" spans="1:26">
       <c r="A377" s="1" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E377" s="1"/>
       <c r="F377" s="1" t="s">
@@ -33011,13 +33011,13 @@
         <v>24</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K377" s="1" t="s">
         <v>819</v>
       </c>
       <c r="L377" s="1">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="M377" s="1">
         <v>300</v>
@@ -33029,16 +33029,16 @@
         <v>21</v>
       </c>
       <c r="P377" s="1">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q377" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="R377" s="1" t="s">
         <v>812</v>
       </c>
       <c r="S377" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="T377" s="1" t="s">
         <v>20</v>
@@ -33058,163 +33058,7 @@
       <c r="Y377" s="4">
         <v>0</v>
       </c>
-      <c r="Z377" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="378" spans="1:26">
-      <c r="A378" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E378" s="1"/>
-      <c r="F378" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G378" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="H378" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I378" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J378" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K378" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="L378" s="1">
-        <v>32</v>
-      </c>
-      <c r="M378" s="1">
-        <v>225</v>
-      </c>
-      <c r="N378" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O378" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="P378" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="Q378" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R378" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="S378" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="T378" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U378" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V378" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W378" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X378" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y378" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z378" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="379" spans="1:26">
-      <c r="A379" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E379" s="1"/>
-      <c r="F379" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G379" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="H379" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I379" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J379" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K379" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="L379" s="1">
-        <v>76</v>
-      </c>
-      <c r="M379" s="1">
-        <v>300</v>
-      </c>
-      <c r="N379" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O379" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P379" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="Q379" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R379" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="S379" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T379" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U379" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V379" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W379" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X379" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y379" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z379" s="7" t="s">
+      <c r="Z377" s="7" t="s">
         <v>23</v>
       </c>
     </row>
